--- a/Data/ConfigRuntime.xlsx
+++ b/Data/ConfigRuntime.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desarrollo1.rpa\Documents\ClarkeREFramework_ColectorExcel\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\01. Procesos\FRAMEWORKS\Clarke\ClarkeREFramework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="173">
   <si>
     <t>Name</t>
   </si>
@@ -244,6 +244,9 @@
     <t>Name of the folders that will be created in shared folder. Use process (long) name</t>
   </si>
   <si>
+    <t xml:space="preserve">"BasePathName" + "EndpointPathName" will be joined. </t>
+  </si>
+  <si>
     <t>InputPath</t>
   </si>
   <si>
@@ -331,6 +334,9 @@
     <t>Name that will be sent on emails</t>
   </si>
   <si>
+    <t>ConstantesTemplatesMail</t>
+  </si>
+  <si>
     <t>MailCountry</t>
   </si>
   <si>
@@ -346,96 +352,199 @@
     <t>Usuario</t>
   </si>
   <si>
+    <t>Plantilla_EmailComunicacion</t>
+  </si>
+  <si>
+    <t>Plantilla_EmailTerminated</t>
+  </si>
+  <si>
+    <t>Plantilla_EmailComienzo</t>
+  </si>
+  <si>
+    <t>Plantilla_EmailErrorNegocio</t>
+  </si>
+  <si>
+    <t>Subject_EmailErrorNegocio</t>
+  </si>
+  <si>
+    <t>Subject_EmailComienzo</t>
+  </si>
+  <si>
+    <t>Subject_EmailComunicacion</t>
+  </si>
+  <si>
+    <t>Subject_EmailTerminated</t>
+  </si>
+  <si>
+    <t>Sust_NombreProceso</t>
+  </si>
+  <si>
+    <t>SustitucionesTemplatesMail</t>
+  </si>
+  <si>
+    <t>Sust_NombreCortoProceso</t>
+  </si>
+  <si>
+    <t>Sust_Usuario</t>
+  </si>
+  <si>
+    <t>Sust_ApodoProceso</t>
+  </si>
+  <si>
+    <t>Sust_Pais</t>
+  </si>
+  <si>
+    <t>Plantilla_EmailFinished</t>
+  </si>
+  <si>
+    <t>Sust_FechaTransaccion</t>
+  </si>
+  <si>
+    <t>Sust_CodigoExcepcion</t>
+  </si>
+  <si>
+    <t>Sust_IDTransaccion</t>
+  </si>
+  <si>
+    <t>Sust_IDTransaccion2</t>
+  </si>
+  <si>
+    <t>Sust_DescripciónTransaccion</t>
+  </si>
+  <si>
+    <t>Sust_DescripcionExcepcion</t>
+  </si>
+  <si>
+    <t>Sust_FechaComienzoEjecución</t>
+  </si>
+  <si>
+    <t>Sust_TextoCuerpo</t>
+  </si>
+  <si>
+    <t>Sust_FechaEjec</t>
+  </si>
+  <si>
+    <t>Sust_IDEjec</t>
+  </si>
+  <si>
+    <t>Subject_EmailFinished</t>
+  </si>
+  <si>
+    <t>Sust_Modulo</t>
+  </si>
+  <si>
+    <t>[Nombre Proceso]</t>
+  </si>
+  <si>
+    <t>[Fecha Comienzo Ejecución]</t>
+  </si>
+  <si>
+    <t>[Usuario]</t>
+  </si>
+  <si>
+    <t>[Nombre Corto Proceso]</t>
+  </si>
+  <si>
+    <t>[Apodo Proceso]</t>
+  </si>
+  <si>
+    <t>[Pais]</t>
+  </si>
+  <si>
+    <t>[TEXTO]</t>
+  </si>
+  <si>
+    <t>[ID Transacción]</t>
+  </si>
+  <si>
+    <t>[Id Transacción]</t>
+  </si>
+  <si>
+    <t>[Código Excepción]</t>
+  </si>
+  <si>
+    <t>[Descripción Excepción]</t>
+  </si>
+  <si>
+    <t>[Fecha Creación Transacción]</t>
+  </si>
+  <si>
+    <t>[Descripción]</t>
+  </si>
+  <si>
+    <t>[Fecha Fin Ejecución]</t>
+  </si>
+  <si>
+    <t>[ID Ejecución]</t>
+  </si>
+  <si>
+    <t>[Modulo]</t>
+  </si>
+  <si>
     <t>PRN001_PRN_PRN</t>
   </si>
   <si>
+    <t>[RPA] - [Nombre Proceso] - Comunicación</t>
+  </si>
+  <si>
+    <t>[RPA] - [Nombre Proceso] - Ejecución Fallida</t>
+  </si>
+  <si>
+    <t>[RPA] - [Nombre Proceso] - Comienzo</t>
+  </si>
+  <si>
+    <t>[RPA] - [Nombre Proceso] - Excepción de Negocio</t>
+  </si>
+  <si>
+    <t>[RPA] - [Nombre Proceso] - Ejecución Finalizada</t>
+  </si>
+  <si>
+    <t>Sust_FechaFaultedEjec</t>
+  </si>
+  <si>
+    <t>[Fecha Ejecución]</t>
+  </si>
+  <si>
+    <t>MailCCO_All</t>
+  </si>
+  <si>
     <t>jmcaravaca@minsait.com</t>
   </si>
   <si>
     <t>ProcessModule</t>
   </si>
   <si>
-    <t>MailTO_All</t>
-  </si>
-  <si>
-    <t>MailCC_All</t>
-  </si>
-  <si>
-    <t>MailBCC_All</t>
-  </si>
-  <si>
-    <t>MailTO_Exceptions</t>
-  </si>
-  <si>
-    <t>MailCC_Exceptions</t>
-  </si>
-  <si>
-    <t>MailBCC_Exceptions</t>
-  </si>
-  <si>
     <t>Colector/Consumidor</t>
   </si>
   <si>
-    <t>MailContactLanguage</t>
-  </si>
-  <si>
-    <t>es-ES</t>
-  </si>
-  <si>
-    <t>SendMail</t>
-  </si>
-  <si>
-    <t>MailFailColector</t>
-  </si>
-  <si>
-    <t>Reporte de ejecución colector - Hay KOs!</t>
-  </si>
-  <si>
-    <t>MailOKColector</t>
-  </si>
-  <si>
-    <t>Reporte de ejecución colector - Todo OK</t>
-  </si>
-  <si>
-    <t>QueueNameNextStep</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Orchestrator queue Name for the Next step. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Leave empty i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>f this is the final step last "consumidor"). The value must match with the queue name defined on Orchestrator.</t>
-    </r>
-  </si>
-  <si>
-    <t>ItemTableNextStep</t>
-  </si>
-  <si>
-    <t>Name of the "main" Database table for the next step</t>
-  </si>
-  <si>
-    <t>CAMBIAR</t>
-  </si>
-  <si>
-    <t>Constantes Carpetas</t>
-  </si>
-  <si>
-    <t>No Cambiar</t>
+    <t>\\CLESCM0002\rpa\05. Templates\02. Produccion\01. EmailsUTF8\PlantillaProceso_ComunicaciónGeneral.htm</t>
+  </si>
+  <si>
+    <t>\\CLESCM0002\rpa\05. Templates\02. Produccion\01. EmailsUTF8\PlantillaProceso_Terminated.htm</t>
+  </si>
+  <si>
+    <t>\\CLESCM0002\rpa\05. Templates\02. Produccion\01. EmailsUTF8\PlantillaProceso_Comienzo.htm</t>
+  </si>
+  <si>
+    <t>\\CLESCM0002\rpa\05. Templates\02. Produccion\01. EmailsUTF8\PlantillaProceso_ExcepcionNegocio.htm</t>
+  </si>
+  <si>
+    <t>\\CLESCM0002\rpa\05. Templates\02. Produccion\01. EmailsUTF8\PlantillaProceso_Finalizado.htm</t>
+  </si>
+  <si>
+    <t>Input</t>
+  </si>
+  <si>
+    <t>DownloadsFolder</t>
+  </si>
+  <si>
+    <t>InputDownloads</t>
+  </si>
+  <si>
+    <t>ProcessDownloads</t>
+  </si>
+  <si>
+    <t>Used in Paths, only as an example.</t>
   </si>
 </sst>
 </file>
@@ -474,8 +583,9 @@
       <family val="2"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -503,10 +613,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -519,9 +630,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -834,10 +947,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -887,160 +1000,104 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1">
+    <row r="3" spans="1:26" ht="45">
       <c r="A3" s="2" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="45">
-      <c r="A4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="4" t="s">
+      <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="30">
-      <c r="A6" t="s">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:26" ht="30">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A9" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
+      <c r="B8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A10" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
+      <c r="A10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A13" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1">
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A22" t="s">
-        <v>118</v>
-      </c>
-      <c r="B22" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+      <c r="A13" t="s">
+        <v>169</v>
+      </c>
+      <c r="B13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="17" ht="14.25" customHeight="1"/>
+    <row r="18" ht="14.25" customHeight="1"/>
+    <row r="19" ht="14.25" customHeight="1"/>
+    <row r="20" ht="14.25" customHeight="1"/>
+    <row r="21" ht="14.25" customHeight="1"/>
+    <row r="22" ht="14.25" customHeight="1"/>
+    <row r="23" ht="14.25" customHeight="1"/>
+    <row r="24" ht="14.25" customHeight="1"/>
+    <row r="25" ht="14.25" customHeight="1"/>
+    <row r="26" ht="14.25" customHeight="1"/>
+    <row r="27" ht="14.25" customHeight="1"/>
+    <row r="28" ht="14.25" customHeight="1"/>
+    <row r="29" ht="14.25" customHeight="1"/>
+    <row r="30" ht="14.25" customHeight="1"/>
+    <row r="31" ht="14.25" customHeight="1"/>
+    <row r="32" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2006,7 +2063,6 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
-    <row r="998" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2016,10 +2072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z953"/>
+  <dimension ref="A1:Z982"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2069,7 +2125,7 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>24</v>
@@ -2201,14 +2257,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
         <v>56</v>
@@ -2256,18 +2305,18 @@
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>48</v>
@@ -2278,46 +2327,46 @@
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -2332,125 +2381,305 @@
     </row>
     <row r="35" spans="1:3" s="6" customFormat="1" ht="14.25" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>151</v>
+      </c>
+      <c r="C36" t="s">
         <v>93</v>
-      </c>
-      <c r="B36" t="s">
-        <v>106</v>
-      </c>
-      <c r="C36" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C38" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B41" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A42" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" s="6" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A44" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A45" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A46" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A47" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A48" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="50" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A51" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A52" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A53" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A54" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" s="6" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A55" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A57" t="s">
+        <v>118</v>
+      </c>
+      <c r="B57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A58" t="s">
         <v>119</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B58" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A59" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A43" t="s">
+      <c r="B59" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A60" t="s">
         <v>121</v>
       </c>
-      <c r="B43" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="49" ht="14.25" customHeight="1"/>
-    <row r="50" ht="14.25" customHeight="1"/>
-    <row r="51" ht="14.25" customHeight="1"/>
-    <row r="52" ht="14.25" customHeight="1"/>
-    <row r="53" ht="14.25" customHeight="1"/>
-    <row r="54" ht="14.25" customHeight="1"/>
-    <row r="55" ht="14.25" customHeight="1"/>
-    <row r="56" ht="14.25" customHeight="1"/>
-    <row r="57" ht="14.25" customHeight="1"/>
-    <row r="58" ht="14.25" customHeight="1"/>
-    <row r="59" ht="14.25" customHeight="1"/>
-    <row r="60" ht="14.25" customHeight="1"/>
-    <row r="61" ht="14.25" customHeight="1"/>
-    <row r="62" ht="14.25" customHeight="1"/>
-    <row r="63" ht="14.25" customHeight="1"/>
-    <row r="64" ht="14.25" customHeight="1"/>
-    <row r="65" ht="14.25" customHeight="1"/>
-    <row r="66" ht="14.25" customHeight="1"/>
-    <row r="67" ht="14.25" customHeight="1"/>
-    <row r="68" ht="14.25" customHeight="1"/>
-    <row r="69" ht="14.25" customHeight="1"/>
-    <row r="70" ht="14.25" customHeight="1"/>
-    <row r="71" ht="14.25" customHeight="1"/>
-    <row r="72" ht="14.25" customHeight="1"/>
-    <row r="73" ht="14.25" customHeight="1"/>
-    <row r="74" ht="14.25" customHeight="1"/>
-    <row r="75" ht="14.25" customHeight="1"/>
-    <row r="76" ht="14.25" customHeight="1"/>
-    <row r="77" ht="14.25" customHeight="1"/>
-    <row r="78" ht="14.25" customHeight="1"/>
-    <row r="79" ht="14.25" customHeight="1"/>
-    <row r="80" ht="14.25" customHeight="1"/>
+      <c r="B60" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A66" t="s">
+        <v>129</v>
+      </c>
+      <c r="B66" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A68" t="s">
+        <v>131</v>
+      </c>
+      <c r="B68" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A69" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A70" t="s">
+        <v>134</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="14.25" customHeight="1">
+      <c r="A72" t="s">
+        <v>157</v>
+      </c>
+      <c r="B72" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="74" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="75" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="76" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="77" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="78" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="79" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="80" spans="1:2" ht="14.25" customHeight="1"/>
     <row r="81" ht="14.25" customHeight="1"/>
     <row r="82" ht="14.25" customHeight="1"/>
     <row r="83" ht="14.25" customHeight="1"/>
@@ -3324,10 +3553,46 @@
     <row r="951" ht="14.25" customHeight="1"/>
     <row r="952" ht="14.25" customHeight="1"/>
     <row r="953" ht="14.25" customHeight="1"/>
+    <row r="954" ht="14.25" customHeight="1"/>
+    <row r="955" ht="14.25" customHeight="1"/>
+    <row r="956" ht="14.25" customHeight="1"/>
+    <row r="957" ht="14.25" customHeight="1"/>
+    <row r="958" ht="14.25" customHeight="1"/>
+    <row r="959" ht="14.25" customHeight="1"/>
+    <row r="960" ht="14.25" customHeight="1"/>
+    <row r="961" ht="14.25" customHeight="1"/>
+    <row r="962" ht="14.25" customHeight="1"/>
+    <row r="963" ht="14.25" customHeight="1"/>
+    <row r="964" ht="14.25" customHeight="1"/>
+    <row r="965" ht="14.25" customHeight="1"/>
+    <row r="966" ht="14.25" customHeight="1"/>
+    <row r="967" ht="14.25" customHeight="1"/>
+    <row r="968" ht="14.25" customHeight="1"/>
+    <row r="969" ht="14.25" customHeight="1"/>
+    <row r="970" ht="14.25" customHeight="1"/>
+    <row r="971" ht="14.25" customHeight="1"/>
+    <row r="972" ht="14.25" customHeight="1"/>
+    <row r="973" ht="14.25" customHeight="1"/>
+    <row r="974" ht="14.25" customHeight="1"/>
+    <row r="975" ht="14.25" customHeight="1"/>
+    <row r="976" ht="14.25" customHeight="1"/>
+    <row r="977" ht="14.25" customHeight="1"/>
+    <row r="978" ht="14.25" customHeight="1"/>
+    <row r="979" ht="14.25" customHeight="1"/>
+    <row r="980" ht="14.25" customHeight="1"/>
+    <row r="981" ht="14.25" customHeight="1"/>
+    <row r="982" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
+  <hyperlinks>
+    <hyperlink ref="B44" r:id="rId1"/>
+    <hyperlink ref="B45" r:id="rId2"/>
+    <hyperlink ref="B46" r:id="rId3"/>
+    <hyperlink ref="B47" r:id="rId4"/>
+    <hyperlink ref="B48" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3385,10 +3650,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -3413,7 +3678,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -4477,7 +4742,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -4488,7 +4753,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -5498,10 +5763,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z998"/>
+  <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -5547,15 +5812,28 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="2" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="C8" s="5"/>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
@@ -6546,6 +6824,7 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/ConfigRuntime.xlsx
+++ b/Data/ConfigRuntime.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\01. Procesos\FRAMEWORKS\Clarke\ClarkeREFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ClonedRepos\Frameworks\ExtendedREFramework_ColectorExcel\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="141">
   <si>
     <t>Name</t>
   </si>
@@ -211,9 +211,6 @@
     <t>RPA CoE</t>
   </si>
   <si>
-    <t>ClarkeRPA_SMTPHost</t>
-  </si>
-  <si>
     <t>JCV001_XXX</t>
   </si>
   <si>
@@ -244,9 +241,6 @@
     <t>Name of the folders that will be created in shared folder. Use process (long) name</t>
   </si>
   <si>
-    <t xml:space="preserve">"BasePathName" + "EndpointPathName" will be joined. </t>
-  </si>
-  <si>
     <t>InputPath</t>
   </si>
   <si>
@@ -295,18 +289,9 @@
     <t>JCV_Test</t>
   </si>
   <si>
-    <t>ClarkeRPA_SMTPPort</t>
-  </si>
-  <si>
     <t>MAIL_ROBOT</t>
   </si>
   <si>
-    <t>ClarkeRPA_DBConnectionString</t>
-  </si>
-  <si>
-    <t>ClarkeRPA_SharedFolder_Base</t>
-  </si>
-  <si>
     <t>Process name that will be sent in emails</t>
   </si>
   <si>
@@ -319,24 +304,15 @@
     <t>MailProcessNickName</t>
   </si>
   <si>
-    <t>Dora</t>
-  </si>
-  <si>
     <t>PRN</t>
   </si>
   <si>
     <t>MailSenderName</t>
   </si>
   <si>
-    <t>NoReply ClarkeModet</t>
-  </si>
-  <si>
     <t>Name that will be sent on emails</t>
   </si>
   <si>
-    <t>ConstantesTemplatesMail</t>
-  </si>
-  <si>
     <t>MailCountry</t>
   </si>
   <si>
@@ -352,162 +328,9 @@
     <t>Usuario</t>
   </si>
   <si>
-    <t>Plantilla_EmailComunicacion</t>
-  </si>
-  <si>
-    <t>Plantilla_EmailTerminated</t>
-  </si>
-  <si>
-    <t>Plantilla_EmailComienzo</t>
-  </si>
-  <si>
-    <t>Plantilla_EmailErrorNegocio</t>
-  </si>
-  <si>
-    <t>Subject_EmailErrorNegocio</t>
-  </si>
-  <si>
-    <t>Subject_EmailComienzo</t>
-  </si>
-  <si>
-    <t>Subject_EmailComunicacion</t>
-  </si>
-  <si>
-    <t>Subject_EmailTerminated</t>
-  </si>
-  <si>
-    <t>Sust_NombreProceso</t>
-  </si>
-  <si>
-    <t>SustitucionesTemplatesMail</t>
-  </si>
-  <si>
-    <t>Sust_NombreCortoProceso</t>
-  </si>
-  <si>
-    <t>Sust_Usuario</t>
-  </si>
-  <si>
-    <t>Sust_ApodoProceso</t>
-  </si>
-  <si>
-    <t>Sust_Pais</t>
-  </si>
-  <si>
-    <t>Plantilla_EmailFinished</t>
-  </si>
-  <si>
-    <t>Sust_FechaTransaccion</t>
-  </si>
-  <si>
-    <t>Sust_CodigoExcepcion</t>
-  </si>
-  <si>
-    <t>Sust_IDTransaccion</t>
-  </si>
-  <si>
-    <t>Sust_IDTransaccion2</t>
-  </si>
-  <si>
-    <t>Sust_DescripciónTransaccion</t>
-  </si>
-  <si>
-    <t>Sust_DescripcionExcepcion</t>
-  </si>
-  <si>
-    <t>Sust_FechaComienzoEjecución</t>
-  </si>
-  <si>
-    <t>Sust_TextoCuerpo</t>
-  </si>
-  <si>
-    <t>Sust_FechaEjec</t>
-  </si>
-  <si>
-    <t>Sust_IDEjec</t>
-  </si>
-  <si>
-    <t>Subject_EmailFinished</t>
-  </si>
-  <si>
-    <t>Sust_Modulo</t>
-  </si>
-  <si>
-    <t>[Nombre Proceso]</t>
-  </si>
-  <si>
-    <t>[Fecha Comienzo Ejecución]</t>
-  </si>
-  <si>
-    <t>[Usuario]</t>
-  </si>
-  <si>
-    <t>[Nombre Corto Proceso]</t>
-  </si>
-  <si>
-    <t>[Apodo Proceso]</t>
-  </si>
-  <si>
-    <t>[Pais]</t>
-  </si>
-  <si>
-    <t>[TEXTO]</t>
-  </si>
-  <si>
-    <t>[ID Transacción]</t>
-  </si>
-  <si>
-    <t>[Id Transacción]</t>
-  </si>
-  <si>
-    <t>[Código Excepción]</t>
-  </si>
-  <si>
-    <t>[Descripción Excepción]</t>
-  </si>
-  <si>
-    <t>[Fecha Creación Transacción]</t>
-  </si>
-  <si>
-    <t>[Descripción]</t>
-  </si>
-  <si>
-    <t>[Fecha Fin Ejecución]</t>
-  </si>
-  <si>
-    <t>[ID Ejecución]</t>
-  </si>
-  <si>
-    <t>[Modulo]</t>
-  </si>
-  <si>
     <t>PRN001_PRN_PRN</t>
   </si>
   <si>
-    <t>[RPA] - [Nombre Proceso] - Comunicación</t>
-  </si>
-  <si>
-    <t>[RPA] - [Nombre Proceso] - Ejecución Fallida</t>
-  </si>
-  <si>
-    <t>[RPA] - [Nombre Proceso] - Comienzo</t>
-  </si>
-  <si>
-    <t>[RPA] - [Nombre Proceso] - Excepción de Negocio</t>
-  </si>
-  <si>
-    <t>[RPA] - [Nombre Proceso] - Ejecución Finalizada</t>
-  </si>
-  <si>
-    <t>Sust_FechaFaultedEjec</t>
-  </si>
-  <si>
-    <t>[Fecha Ejecución]</t>
-  </si>
-  <si>
-    <t>MailCCO_All</t>
-  </si>
-  <si>
     <t>jmcaravaca@minsait.com</t>
   </si>
   <si>
@@ -517,34 +340,135 @@
     <t>Colector/Consumidor</t>
   </si>
   <si>
-    <t>\\CLESCM0002\rpa\05. Templates\02. Produccion\01. EmailsUTF8\PlantillaProceso_ComunicaciónGeneral.htm</t>
-  </si>
-  <si>
-    <t>\\CLESCM0002\rpa\05. Templates\02. Produccion\01. EmailsUTF8\PlantillaProceso_Terminated.htm</t>
-  </si>
-  <si>
-    <t>\\CLESCM0002\rpa\05. Templates\02. Produccion\01. EmailsUTF8\PlantillaProceso_Comienzo.htm</t>
-  </si>
-  <si>
-    <t>\\CLESCM0002\rpa\05. Templates\02. Produccion\01. EmailsUTF8\PlantillaProceso_ExcepcionNegocio.htm</t>
-  </si>
-  <si>
-    <t>\\CLESCM0002\rpa\05. Templates\02. Produccion\01. EmailsUTF8\PlantillaProceso_Finalizado.htm</t>
-  </si>
-  <si>
-    <t>Input</t>
-  </si>
-  <si>
-    <t>DownloadsFolder</t>
-  </si>
-  <si>
-    <t>InputDownloads</t>
-  </si>
-  <si>
-    <t>ProcessDownloads</t>
-  </si>
-  <si>
-    <t>Used in Paths, only as an example.</t>
+    <t>MailContactLanguage</t>
+  </si>
+  <si>
+    <t>es-ES</t>
+  </si>
+  <si>
+    <t>MailTO_All</t>
+  </si>
+  <si>
+    <t>MailCC_All</t>
+  </si>
+  <si>
+    <t>MailBCC_All</t>
+  </si>
+  <si>
+    <t>MailTO_Exceptions</t>
+  </si>
+  <si>
+    <t>MailCC_Exceptions</t>
+  </si>
+  <si>
+    <t>MailBCC_Exceptions</t>
+  </si>
+  <si>
+    <t>CAMBIAR</t>
+  </si>
+  <si>
+    <t>SendMail</t>
+  </si>
+  <si>
+    <t>QueueNameNextStep</t>
+  </si>
+  <si>
+    <t>ItemTableNextStep</t>
+  </si>
+  <si>
+    <t>Name of the "main" Database table for the next step</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Orchestrator queue Name for the Next step. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Leave empty i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>f this is the final step last "consumidor"). The value must match with the queue name defined on Orchestrator.</t>
+    </r>
+  </si>
+  <si>
+    <t>NO CAMBIAR</t>
+  </si>
+  <si>
+    <t>ConstantesCarpetas</t>
+  </si>
+  <si>
+    <t>RPA_DBConnectionString</t>
+  </si>
+  <si>
+    <t>RPA_SharedFolder_Base</t>
+  </si>
+  <si>
+    <t>RPA_SMTPHost</t>
+  </si>
+  <si>
+    <t>RPA_SMTPPort</t>
+  </si>
+  <si>
+    <t>NoReply</t>
+  </si>
+  <si>
+    <t>UseDB</t>
+  </si>
+  <si>
+    <t>Use auxiliary database for error codes and item data</t>
+  </si>
+  <si>
+    <t>UseDataServiceErrors</t>
+  </si>
+  <si>
+    <t>UseDataServiceItem</t>
+  </si>
+  <si>
+    <t>Use Data service for item data</t>
+  </si>
+  <si>
+    <t>Use Data service for error codes</t>
+  </si>
+  <si>
+    <t>ExceptionLanguage</t>
+  </si>
+  <si>
+    <t>EnforceSecondDataSource</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If set to true, framework will attempt to get data from relevant data source (DB/Data Service). If data doesn't exist, an exception will be htrown . If false, it will not try to retrieve data from data source </t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Windows(\)</t>
+  </si>
+  <si>
+    <t>Unix(/)</t>
+  </si>
+  <si>
+    <t>Add failed items to next queue already as failed</t>
+  </si>
+  <si>
+    <t>AddFailedItem</t>
+  </si>
+  <si>
+    <t>ErrorCodePath</t>
+  </si>
+  <si>
+    <t>Data\ErrorCodes.xlsx</t>
   </si>
 </sst>
 </file>
@@ -583,9 +507,8 @@
       <family val="2"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -613,11 +536,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -630,11 +552,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -947,10 +867,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z997"/>
+  <dimension ref="A1:Z1012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1000,104 +920,237 @@
         <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:26" ht="45">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" ht="45">
+      <c r="A5" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="4" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="30">
-      <c r="A5" t="s">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:26" ht="30">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B7" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A7" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A8" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26">
+      <c r="B8" s="2"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" t="b">
+        <v>0</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1">
       <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>160</v>
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
       <c r="A11" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
+        <v>115</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12" t="b">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
     <row r="13" spans="1:26" ht="14.25" customHeight="1">
       <c r="A13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="17" ht="14.25" customHeight="1"/>
-    <row r="18" ht="14.25" customHeight="1"/>
-    <row r="19" ht="14.25" customHeight="1"/>
-    <row r="20" ht="14.25" customHeight="1"/>
-    <row r="21" ht="14.25" customHeight="1"/>
-    <row r="22" ht="14.25" customHeight="1"/>
-    <row r="23" ht="14.25" customHeight="1"/>
-    <row r="24" ht="14.25" customHeight="1"/>
-    <row r="25" ht="14.25" customHeight="1"/>
-    <row r="26" ht="14.25" customHeight="1"/>
-    <row r="27" ht="14.25" customHeight="1"/>
-    <row r="28" ht="14.25" customHeight="1"/>
-    <row r="29" ht="14.25" customHeight="1"/>
-    <row r="30" ht="14.25" customHeight="1"/>
-    <row r="31" ht="14.25" customHeight="1"/>
-    <row r="32" ht="14.25" customHeight="1"/>
+        <v>128</v>
+      </c>
+      <c r="B13" t="b">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A14" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" t="b">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:26" ht="14.25" customHeight="1">
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="14.25" customHeight="1">
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1">
+      <c r="B26" s="8"/>
+    </row>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A27" t="s">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A32" t="s">
+        <v>139</v>
+      </c>
+      <c r="B32" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
@@ -2063,6 +2116,21 @@
     <row r="995" ht="14.25" customHeight="1"/>
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
+    <row r="998" ht="14.25" customHeight="1"/>
+    <row r="999" ht="14.25" customHeight="1"/>
+    <row r="1000" ht="14.25" customHeight="1"/>
+    <row r="1001" ht="14.25" customHeight="1"/>
+    <row r="1002" ht="14.25" customHeight="1"/>
+    <row r="1003" ht="14.25" customHeight="1"/>
+    <row r="1004" ht="14.25" customHeight="1"/>
+    <row r="1005" ht="14.25" customHeight="1"/>
+    <row r="1006" ht="14.25" customHeight="1"/>
+    <row r="1007" ht="14.25" customHeight="1"/>
+    <row r="1008" ht="14.25" customHeight="1"/>
+    <row r="1009" ht="14.25" customHeight="1"/>
+    <row r="1010" ht="14.25" customHeight="1"/>
+    <row r="1011" ht="14.25" customHeight="1"/>
+    <row r="1012" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2072,10 +2140,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z982"/>
+  <dimension ref="A1:Z951"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2257,7 +2325,14 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" s="6" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
     <row r="20" spans="1:3" ht="14.25" customHeight="1">
       <c r="A20" t="s">
         <v>56</v>
@@ -2272,51 +2347,51 @@
     <row r="21" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.25" customHeight="1">
       <c r="A22" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="14.25" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="14.25" customHeight="1">
       <c r="A24" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="14.25" customHeight="1">
       <c r="A25" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="27" spans="1:3" ht="14.25" customHeight="1">
       <c r="A27" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" s="2" t="b">
         <v>0</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.25" customHeight="1">
       <c r="A28" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>48</v>
@@ -2327,46 +2402,46 @@
     </row>
     <row r="29" spans="1:3" ht="14.25" customHeight="1">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="14.25" customHeight="1">
       <c r="A30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C30" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="14.25" customHeight="1">
       <c r="A31" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="C31" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="14.25" customHeight="1">
       <c r="A32" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="14.25" customHeight="1">
@@ -2381,305 +2456,111 @@
     </row>
     <row r="35" spans="1:3" s="6" customFormat="1" ht="14.25" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>105</v>
+        <v>97</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="14.25" customHeight="1">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B36" t="s">
-        <v>151</v>
+        <v>100</v>
       </c>
       <c r="C36" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="14.25" customHeight="1">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="14.25" customHeight="1">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="14.25" customHeight="1">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="C39" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="14.25" customHeight="1">
       <c r="A40" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="14.25" customHeight="1">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" s="6" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A42" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="43" spans="1:3" ht="14.25" customHeight="1"/>
-    <row r="44" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A44" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A47" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A48" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="50" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A50" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A51" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A52" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A53" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A54" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" s="6" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A55" s="7" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A56" t="s">
-        <v>116</v>
-      </c>
-      <c r="B56" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A57" t="s">
-        <v>118</v>
-      </c>
-      <c r="B57" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A58" t="s">
-        <v>119</v>
-      </c>
-      <c r="B58" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A59" t="s">
-        <v>120</v>
-      </c>
-      <c r="B59" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A60" t="s">
-        <v>121</v>
-      </c>
-      <c r="B60" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A61" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A62" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A63" t="s">
-        <v>125</v>
-      </c>
-      <c r="B63" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A64" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A65" t="s">
-        <v>127</v>
-      </c>
-      <c r="B65" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A66" t="s">
-        <v>129</v>
-      </c>
-      <c r="B66" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A67" t="s">
-        <v>130</v>
-      </c>
-      <c r="B67" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A68" t="s">
-        <v>131</v>
-      </c>
-      <c r="B68" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A69" t="s">
-        <v>132</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A70" t="s">
-        <v>134</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A71" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" ht="14.25" customHeight="1">
-      <c r="A72" t="s">
-        <v>157</v>
-      </c>
-      <c r="B72" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="74" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="75" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="76" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="77" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="78" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="79" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="80" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="44" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="45" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="46" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="47" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="48" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="49" ht="14.25" customHeight="1"/>
+    <row r="50" ht="14.25" customHeight="1"/>
+    <row r="51" ht="14.25" customHeight="1"/>
+    <row r="52" ht="14.25" customHeight="1"/>
+    <row r="53" ht="14.25" customHeight="1"/>
+    <row r="54" ht="14.25" customHeight="1"/>
+    <row r="55" ht="14.25" customHeight="1"/>
+    <row r="56" ht="14.25" customHeight="1"/>
+    <row r="57" ht="14.25" customHeight="1"/>
+    <row r="58" ht="14.25" customHeight="1"/>
+    <row r="59" ht="14.25" customHeight="1"/>
+    <row r="60" ht="14.25" customHeight="1"/>
+    <row r="61" ht="14.25" customHeight="1"/>
+    <row r="62" ht="14.25" customHeight="1"/>
+    <row r="63" ht="14.25" customHeight="1"/>
+    <row r="64" ht="14.25" customHeight="1"/>
+    <row r="65" ht="14.25" customHeight="1"/>
+    <row r="66" ht="14.25" customHeight="1"/>
+    <row r="67" ht="14.25" customHeight="1"/>
+    <row r="68" ht="14.25" customHeight="1"/>
+    <row r="69" ht="14.25" customHeight="1"/>
+    <row r="70" ht="14.25" customHeight="1"/>
+    <row r="71" ht="14.25" customHeight="1"/>
+    <row r="72" ht="14.25" customHeight="1"/>
+    <row r="73" ht="14.25" customHeight="1"/>
+    <row r="74" ht="14.25" customHeight="1"/>
+    <row r="75" ht="14.25" customHeight="1"/>
+    <row r="76" ht="14.25" customHeight="1"/>
+    <row r="77" ht="14.25" customHeight="1"/>
+    <row r="78" ht="14.25" customHeight="1"/>
+    <row r="79" ht="14.25" customHeight="1"/>
+    <row r="80" ht="14.25" customHeight="1"/>
     <row r="81" ht="14.25" customHeight="1"/>
     <row r="82" ht="14.25" customHeight="1"/>
     <row r="83" ht="14.25" customHeight="1"/>
@@ -3551,48 +3432,10 @@
     <row r="949" ht="14.25" customHeight="1"/>
     <row r="950" ht="14.25" customHeight="1"/>
     <row r="951" ht="14.25" customHeight="1"/>
-    <row r="952" ht="14.25" customHeight="1"/>
-    <row r="953" ht="14.25" customHeight="1"/>
-    <row r="954" ht="14.25" customHeight="1"/>
-    <row r="955" ht="14.25" customHeight="1"/>
-    <row r="956" ht="14.25" customHeight="1"/>
-    <row r="957" ht="14.25" customHeight="1"/>
-    <row r="958" ht="14.25" customHeight="1"/>
-    <row r="959" ht="14.25" customHeight="1"/>
-    <row r="960" ht="14.25" customHeight="1"/>
-    <row r="961" ht="14.25" customHeight="1"/>
-    <row r="962" ht="14.25" customHeight="1"/>
-    <row r="963" ht="14.25" customHeight="1"/>
-    <row r="964" ht="14.25" customHeight="1"/>
-    <row r="965" ht="14.25" customHeight="1"/>
-    <row r="966" ht="14.25" customHeight="1"/>
-    <row r="967" ht="14.25" customHeight="1"/>
-    <row r="968" ht="14.25" customHeight="1"/>
-    <row r="969" ht="14.25" customHeight="1"/>
-    <row r="970" ht="14.25" customHeight="1"/>
-    <row r="971" ht="14.25" customHeight="1"/>
-    <row r="972" ht="14.25" customHeight="1"/>
-    <row r="973" ht="14.25" customHeight="1"/>
-    <row r="974" ht="14.25" customHeight="1"/>
-    <row r="975" ht="14.25" customHeight="1"/>
-    <row r="976" ht="14.25" customHeight="1"/>
-    <row r="977" ht="14.25" customHeight="1"/>
-    <row r="978" ht="14.25" customHeight="1"/>
-    <row r="979" ht="14.25" customHeight="1"/>
-    <row r="980" ht="14.25" customHeight="1"/>
-    <row r="981" ht="14.25" customHeight="1"/>
-    <row r="982" ht="14.25" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="B44" r:id="rId1"/>
-    <hyperlink ref="B45" r:id="rId2"/>
-    <hyperlink ref="B46" r:id="rId3"/>
-    <hyperlink ref="B47" r:id="rId4"/>
-    <hyperlink ref="B48" r:id="rId5"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3601,7 +3444,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3650,10 +3493,10 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -3667,7 +3510,7 @@
         <v>53</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>122</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -3678,7 +3521,7 @@
         <v>54</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>89</v>
+        <v>123</v>
       </c>
       <c r="C4" t="s">
         <v>60</v>
@@ -4690,7 +4533,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4742,7 +4585,7 @@
         <v>45</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
         <v>60</v>
@@ -4753,7 +4596,7 @@
         <v>46</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
         <v>60</v>
@@ -5763,20 +5606,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z999"/>
+  <dimension ref="A1:AA998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="3" width="60.28515625" customWidth="1"/>
-    <col min="4" max="26" width="65.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="27" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="14.25" customHeight="1">
+    <row r="1" spans="1:27" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5787,9 +5631,11 @@
         <v>44</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
@@ -5811,37 +5657,34 @@
       <c r="X1" s="1"/>
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" ht="14.25" customHeight="1">
-      <c r="A2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C2" t="s">
-        <v>169</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="5" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="6" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="7" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1">
-      <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="12" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="13" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="14" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="15" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="16" spans="1:26" ht="14.25" customHeight="1"/>
+      <c r="AA1" s="1"/>
+    </row>
+    <row r="2" spans="1:27" ht="14.25" customHeight="1">
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="14.25" customHeight="1">
+      <c r="D3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="5" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="6" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="7" spans="1:27" ht="14.25" customHeight="1">
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="9" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="10" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="11" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="12" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="13" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="14" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="15" spans="1:27" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:27" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -6824,8 +6667,12 @@
     <row r="996" ht="14.25" customHeight="1"/>
     <row r="997" ht="14.25" customHeight="1"/>
     <row r="998" ht="14.25" customHeight="1"/>
-    <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576">
+      <formula1>"Windows(\),Unix(/)"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
